--- a/result/reduced_orig_classification_classifiers_result.xlsx
+++ b/result/reduced_orig_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6026698627892408</v>
+        <v>0.5622630665831265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.635</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.581619110749952</v>
+        <v>0.5718680981367751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5840000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5871609016186858</v>
+        <v>0.4973900991999861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.604</v>
+        <v>0.488</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5749741732066713</v>
+        <v>0.5115670629662663</v>
       </c>
       <c r="I4" t="n">
-        <v>0.578</v>
+        <v>0.5119999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5954173195860324</v>
+        <v>0.6478652111836987</v>
       </c>
       <c r="K4" t="n">
-        <v>0.617</v>
+        <v>0.671</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5792515427566858</v>
+        <v>0.6320553432887318</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5815</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6887217709802543</v>
+        <v>0.6019897392385534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9180000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5544040451877474</v>
+        <v>0.5994111323969925</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5835000000000001</v>
+        <v>0.5985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4846911059692266</v>
+        <v>0.6586340925147478</v>
       </c>
       <c r="G5" t="n">
-        <v>0.437</v>
+        <v>0.958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5661631160888427</v>
+        <v>0.5019838417455367</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5375</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6949767986340092</v>
+        <v>0.6588398290076032</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9189999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5619596301977708</v>
+        <v>0.5635210902082279</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5935</v>
+        <v>0.5854999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6549612339223669</v>
+        <v>0.5545416489452318</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6759999999999999</v>
+        <v>0.5539999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6599908297794327</v>
+        <v>0.5585990932195147</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6475</v>
+        <v>0.5555000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6110017096048381</v>
+        <v>0.4973844107952275</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6020000000000001</v>
+        <v>0.4940000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6258544267631666</v>
+        <v>0.5028591809916632</v>
       </c>
       <c r="I6" t="n">
-        <v>0.62</v>
+        <v>0.5035000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.650332649653712</v>
+        <v>0.6463574602214355</v>
       </c>
       <c r="K6" t="n">
-        <v>0.668</v>
+        <v>0.642</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6618362771718925</v>
+        <v>0.6627215819586342</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6485000000000001</v>
+        <v>0.6575</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_orig_classification_classifiers_result.xlsx
+++ b/result/reduced_orig_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5622630665831265</v>
+        <v>0.6130949948175259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5718680981367751</v>
+        <v>0.6308209611002592</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5625</v>
+        <v>0.6210000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4973900991999861</v>
+        <v>0.5048500116638125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.488</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5115670629662663</v>
+        <v>0.5131360300703008</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5119999999999999</v>
+        <v>0.5130000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6478652111836987</v>
+        <v>0.618624316015203</v>
       </c>
       <c r="K4" t="n">
-        <v>0.671</v>
+        <v>0.6469999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6320553432887318</v>
+        <v>0.5980672807509251</v>
       </c>
       <c r="M4" t="n">
-        <v>0.641</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6019897392385534</v>
+        <v>0.3049745498958462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635</v>
+        <v>0.229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5994111323969925</v>
+        <v>0.5935315452091767</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5985</v>
+        <v>0.5645</v>
       </c>
       <c r="F5" t="n">
         <v>0.6586340925147478</v>
@@ -625,16 +625,16 @@
         <v>0.5044999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6588398290076032</v>
+        <v>0.6013616104472984</v>
       </c>
       <c r="K5" t="n">
-        <v>0.806</v>
+        <v>0.7590000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5635210902082279</v>
+        <v>0.5635485265153199</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5854999999999999</v>
+        <v>0.5685</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5545416489452318</v>
+        <v>0.6800672834381298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5585990932195147</v>
+        <v>0.6789847778345015</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5555000000000001</v>
+        <v>0.6855</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4973844107952275</v>
+        <v>0.5105136622013136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4940000000000001</v>
+        <v>0.512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5028591809916632</v>
+        <v>0.5109260796769836</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5035000000000001</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6463574602214355</v>
+        <v>0.7006441631166135</v>
       </c>
       <c r="K6" t="n">
-        <v>0.642</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6627215819586342</v>
+        <v>0.7362084704971299</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6575</v>
+        <v>0.7155</v>
       </c>
     </row>
   </sheetData>

--- a/result/reduced_orig_classification_classifiers_result.xlsx
+++ b/result/reduced_orig_classification_classifiers_result.xlsx
@@ -558,40 +558,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6130949948175259</v>
+        <v>0.5610447226247582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.609</v>
+        <v>0.534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6308209611002592</v>
+        <v>0.5985859442797988</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6210000000000001</v>
+        <v>0.5860000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5048500116638125</v>
+        <v>0.6579176836896354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5131360300703008</v>
+        <v>0.5314183833503119</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5130000000000001</v>
+        <v>0.5385000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.618624316015203</v>
+        <v>0.7290315095519146</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6469999999999999</v>
+        <v>0.849</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5980672807509251</v>
+        <v>0.6483729490791019</v>
       </c>
       <c r="M4" t="n">
-        <v>0.601</v>
+        <v>0.6829999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -601,40 +601,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3049745498958462</v>
+        <v>0.5495558523323343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229</v>
+        <v>0.448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5935315452091767</v>
+        <v>0.7314451844686448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5645</v>
+        <v>0.6389999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6586340925147478</v>
+        <v>0.535181020306055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.958</v>
+        <v>0.5309999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5019838417455367</v>
+        <v>0.550865745797552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.5595</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6013616104472984</v>
+        <v>0.6899196395594889</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7590000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5635485265153199</v>
+        <v>0.7249144224478739</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5685</v>
+        <v>0.7175</v>
       </c>
     </row>
     <row r="6">
@@ -644,40 +644,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6800672834381298</v>
+        <v>0.6416973071959204</v>
       </c>
       <c r="C6" t="n">
-        <v>0.696</v>
+        <v>0.6419999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6789847778345015</v>
+        <v>0.6508146326546903</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6855</v>
+        <v>0.645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5105136622013136</v>
+        <v>0.5501052135271551</v>
       </c>
       <c r="G6" t="n">
-        <v>0.512</v>
+        <v>0.53</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5109260796769836</v>
+        <v>0.5920101700508398</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5125000000000001</v>
+        <v>0.5814999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7006441631166135</v>
+        <v>0.7419305070373569</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7362084704971299</v>
+        <v>0.7603074785133486</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7155</v>
+        <v>0.744</v>
       </c>
     </row>
   </sheetData>
